--- a/May-2024- Windows Server Patching-updated.xlsx
+++ b/May-2024- Windows Server Patching-updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuva\OneDrive\Desktop\Python course\Automation-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20127A87-3091-4E6C-94C3-89BABD59A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1AD96-3674-451B-94B7-77A8414337A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="187">
   <si>
     <t>Computer Name</t>
   </si>
@@ -56,30 +56,15 @@
     <t>App-Team Group mail id</t>
   </si>
   <si>
-    <t>18th May</t>
-  </si>
-  <si>
-    <t>26th May</t>
-  </si>
-  <si>
     <t>Week 2 Sunday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
-    <t>2nd June</t>
-  </si>
-  <si>
     <t>Week 0 Sunday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
-    <t>19th May</t>
-  </si>
-  <si>
     <t>Week 1 Saturday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
-    <t>25th May</t>
-  </si>
-  <si>
     <t>Week 0 Saturday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
@@ -89,27 +74,12 @@
     <t>Week 1 Sunday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
-    <t>30th May</t>
-  </si>
-  <si>
-    <t>28th May</t>
-  </si>
-  <si>
-    <t>17th May</t>
-  </si>
-  <si>
     <t>Week 0 Friday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
     <t>Week 1 Monday 1:00 AM - 5:00 AM</t>
   </si>
   <si>
-    <t>20th May</t>
-  </si>
-  <si>
-    <t>27th May</t>
-  </si>
-  <si>
     <t>Week 2 Tuesday 9:00 PM - 1:00 AM</t>
   </si>
   <si>
@@ -117,9 +87,6 @@
   </si>
   <si>
     <t>Week 2 Monday 9:00 PM - 1:00 AM</t>
-  </si>
-  <si>
-    <t>29th May</t>
   </si>
   <si>
     <t>WCVYPRDBV10</t>
@@ -839,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -848,7 +815,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -889,6 +855,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,7 +1197,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,562 +1224,562 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="46">
+        <v>45429</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="46">
+        <v>45429</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="47">
+        <v>45430</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="47">
+        <v>45430</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="47">
+        <v>45430</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="47">
+        <v>45430</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="47">
+        <v>45430</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="47">
+        <v>45430</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="47">
+        <v>45430</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="47">
+        <v>45430</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="47">
+        <v>45430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="47">
+        <v>45430</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="46">
+        <v>45431</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="46">
+        <v>45431</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="46">
+        <v>45431</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="46">
+        <v>45431</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="46">
+        <v>45432</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="46">
+        <v>45437</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="46">
+        <v>45437</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="46">
+        <v>45437</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="46">
+        <v>45437</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C23" s="46">
+        <v>45437</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="46">
+        <v>45437</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C25" s="46">
+        <v>45437</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="46">
+        <v>45438</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C27" s="46">
+        <v>45438</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C28" s="46">
+        <v>45438</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="46">
+        <v>45439</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="46">
+        <v>45439</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="46">
+        <v>45439</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C32" s="46">
+        <v>45440</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C33" s="46">
+        <v>45440</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="46">
+        <v>45440</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="46">
+        <v>45440</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="C36" s="46">
+        <v>45441</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="C37" s="46">
+        <v>45441</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="C38" s="46">
+        <v>45441</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C39" s="46">
+        <v>45445</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C40" s="46">
+        <v>45445</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>143</v>
+      </c>
+      <c r="C41" s="46">
+        <v>45442</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1821,6 +1789,7 @@
     <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1841,1120 +1810,1120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>166</v>
+      <c r="A1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="46"/>
+        <v>160</v>
+      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C7" s="45"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C13" s="45"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C14" s="45"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C15" s="45"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C17" s="45"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="C21" s="45"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="B65" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="B67" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="31" t="s">
+      <c r="B92" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="B101" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="39" t="s">
+      <c r="B103" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>33</v>
+      <c r="B105" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2975,14 +2944,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="44"/>
-    <col min="7" max="7" width="10.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="44"/>
+    <col min="1" max="6" width="9.109375" style="43"/>
+    <col min="7" max="7" width="10.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="43"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:7" ht="63" x14ac:dyDescent="1.2">
-      <c r="G2" s="45" t="s">
-        <v>197</v>
+      <c r="G2" s="44" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2991,6 +2960,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="933b2bfb-80cf-4aca-b3e5-71500f1e8428">
+      <UserInfo>
+        <DisplayName>Rakshit, Pratik</DisplayName>
+        <AccountId>181</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E08046C616577B44AFFB98D63AD2FC33" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4588329585071a2582a1fad1a00df6fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f753067-c081-49d6-aa56-672cca56cb0c" xmlns:ns3="933b2bfb-80cf-4aca-b3e5-71500f1e8428" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="063e4a0ad12009a0449cb3f8df09d74a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f753067-c081-49d6-aa56-672cca56cb0c"/>
@@ -3167,30 +3159,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="933b2bfb-80cf-4aca-b3e5-71500f1e8428">
-      <UserInfo>
-        <DisplayName>Rakshit, Pratik</DisplayName>
-        <AccountId>181</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33FD641F-1A1E-4313-A988-D341E625BC6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B5BD6EC-9AC7-44A0-9738-750B2656C955}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="933b2bfb-80cf-4aca-b3e5-71500f1e8428"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D0F67F-2745-47DF-9410-A2CFD848DECA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3207,22 +3194,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B5BD6EC-9AC7-44A0-9738-750B2656C955}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="933b2bfb-80cf-4aca-b3e5-71500f1e8428"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33FD641F-1A1E-4313-A988-D341E625BC6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>